--- a/Assets/Studies/CHI26_Study1_Funneling/data_processing/p18_trial_set.xlsx
+++ b/Assets/Studies/CHI26_Study1_Funneling/data_processing/p18_trial_set.xlsx
@@ -5,26 +5,57 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\TestingSuite\Assets\Studies\CHI26_Study1_Funneling\data_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\TestingSuite\Assets\Studies\CHI26_Study1_Funneling\data_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4037A28C-908C-4AB1-BFDF-9902917E582B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC4E7E-DF45-4065-9841-DD7AFEA9D502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8ECC188E-B34C-43EC-902B-AC627806FF10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8ECC188E-B34C-43EC-902B-AC627806FF10}"/>
   </bookViews>
   <sheets>
     <sheet name="p18_trial_set" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="13">
   <si>
     <t>Participant</t>
   </si>
@@ -60,6 +91,9 @@
   </si>
   <si>
     <t>L3</t>
+  </si>
+  <si>
+    <t>SUM</t>
   </si>
 </sst>
 </file>
@@ -1151,6 +1185,348 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>p18_trial_set!$AA$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-941E-49B3-A001-46C7A4C87FED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1507413600"/>
+        <c:axId val="1507414080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1507413600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507414080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1507414080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507413600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
         <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
@@ -2675,24 +3051,24 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>p18_trial_set!$S$2:$S$6</c:f>
+              <c:f>p18_trial_set!$S$8:$S$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-15</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-12</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4228,7 +4604,1839 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy of Temp and Location by Temp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-6027-4608-BCB8-4641F5161B43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-6027-4608-BCB8-4641F5161B43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-6027-4608-BCB8-4641F5161B43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-6027-4608-BCB8-4641F5161B43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-6027-4608-BCB8-4641F5161B43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>p18_trial_set!$Y$6:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p18_trial_set!$Z$6:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6027-4608-BCB8-4641F5161B43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1245074928"/>
+        <c:axId val="1245075408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1245074928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (c)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245075408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1245075408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245074928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy of Temp and Location by Duration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-912D-47B8-AE15-597A4180E4EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-912D-47B8-AE15-597A4180E4EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-912D-47B8-AE15-597A4180E4EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-912D-47B8-AE15-597A4180E4EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-912D-47B8-AE15-597A4180E4EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>p18_trial_set!$Y$12:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p18_trial_set!$Z$12:$Z$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-912D-47B8-AE15-597A4180E4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1245074928"/>
+        <c:axId val="1245075408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1245074928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245075408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1245075408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245074928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy of Temp and Location by Location</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E98B-4608-9C05-B887FF1EB433}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E98B-4608-9C05-B887FF1EB433}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E98B-4608-9C05-B887FF1EB433}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E98B-4608-9C05-B887FF1EB433}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E98B-4608-9C05-B887FF1EB433}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>p18_trial_set!$Y$18:$Y$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>L1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>L2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>L3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>L4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>L5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p18_trial_set!$Z$18:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E98B-4608-9C05-B887FF1EB433}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1245074928"/>
+        <c:axId val="1245075408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1245074928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Location (Elbow to Wrist)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245075408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1245075408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245074928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4468,6 +6676,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4971,7 +7299,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5474,7 +7802,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5977,7 +8305,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6480,7 +8808,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6983,7 +9311,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7486,18 +9814,2030 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>75079</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>375396</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
@@ -7528,14 +11868,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>565896</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>265579</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -7566,14 +11906,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>84604</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>384921</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
@@ -7604,14 +11944,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>575421</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>275104</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -7642,16 +11982,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>101413</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>135031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>401730</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>20731</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7680,14 +12020,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>527796</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>227479</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7716,187 +12056,155 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28014</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>364190</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA14009-84B7-F475-3DB5-29F9712F007D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C1671E-2AE6-433E-8305-5177C2A328F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>31376</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584CF132-6C05-4D40-8497-FDACA162C6C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057A90DC-8431-72BE-A061-A359B90726D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="p17_trial_set"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="p17_trial_set"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="S2">
-            <v>-15</v>
-          </cell>
-          <cell r="T2">
-            <v>0.22</v>
-          </cell>
-          <cell r="U2">
-            <v>0.14000000000000001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="S3">
-            <v>-12</v>
-          </cell>
-          <cell r="T3">
-            <v>0.18</v>
-          </cell>
-          <cell r="U3">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="S4">
-            <v>0</v>
-          </cell>
-          <cell r="T4">
-            <v>0.22</v>
-          </cell>
-          <cell r="U4">
-            <v>0.62</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="S5">
-            <v>6</v>
-          </cell>
-          <cell r="T5">
-            <v>0.16</v>
-          </cell>
-          <cell r="U5">
-            <v>0.44</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="S6">
-            <v>9</v>
-          </cell>
-          <cell r="T6">
-            <v>0.22</v>
-          </cell>
-          <cell r="U6">
-            <v>0.56000000000000005</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="S8">
-            <v>0.1</v>
-          </cell>
-          <cell r="T8">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="S9">
-            <v>0.5</v>
-          </cell>
-          <cell r="T9">
-            <v>0.22</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="S10">
-            <v>1</v>
-          </cell>
-          <cell r="T10">
-            <v>0.14000000000000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="S11">
-            <v>1.5</v>
-          </cell>
-          <cell r="T11">
-            <v>0.22</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="S12">
-            <v>2</v>
-          </cell>
-          <cell r="T12">
-            <v>0.22</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="S14" t="str">
-            <v>L1</v>
-          </cell>
-          <cell r="T14">
-            <v>0.26</v>
-          </cell>
-          <cell r="U14">
-            <v>0.44</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="S15" t="str">
-            <v>L2</v>
-          </cell>
-          <cell r="T15">
-            <v>0.4</v>
-          </cell>
-          <cell r="U15">
-            <v>0.42</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="S16" t="str">
-            <v>L3</v>
-          </cell>
-          <cell r="T16">
-            <v>0.3</v>
-          </cell>
-          <cell r="U16">
-            <v>0.38</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="S17" t="str">
-            <v>L4</v>
-          </cell>
-          <cell r="T17">
-            <v>0.02</v>
-          </cell>
-          <cell r="U17">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="S18" t="str">
-            <v>L5</v>
-          </cell>
-          <cell r="T18">
-            <v>0.02</v>
-          </cell>
-          <cell r="U18">
-            <v>0.32</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8216,15 +12524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7DAFA-5813-4033-B645-0D375594750B}">
-  <dimension ref="A1:U251"/>
+  <dimension ref="A1:AA251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW45" sqref="AW45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8249,8 +12557,12 @@
       <c r="Q1" t="e">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W1" t="e" cm="1">
+        <f t="array" ref="W1">IF(AND(P1:P251=1, Q1:Q251=1),1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18</v>
       </c>
@@ -8290,8 +12602,12 @@
       <c r="U2">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W2">
+        <f>IF(AND(P2=1, Q2=1),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18</v>
       </c>
@@ -8331,8 +12647,12 @@
       <c r="U3">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <f t="shared" ref="W3:W66" si="0">IF(AND(P3=1, Q3=1),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
@@ -8372,8 +12692,23 @@
       <c r="U4">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4">
+        <f>SUM(W2:W251)</f>
+        <v>152</v>
+      </c>
+      <c r="AA4">
+        <f>152/250</f>
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
@@ -8419,8 +12754,12 @@
       <c r="U5">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
@@ -8466,8 +12805,19 @@
       <c r="U6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>-15</v>
+      </c>
+      <c r="Z6">
+        <f>SUMIF(B1:B251, -15, W1:W251)/50</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18</v>
       </c>
@@ -8504,8 +12854,19 @@
       <c r="Q7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>-12</v>
+      </c>
+      <c r="Z7">
+        <f>SUMIF(B1:B251, -12, W1:W251)/50</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18</v>
       </c>
@@ -8551,8 +12912,19 @@
       <c r="U8">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f>SUMIF(B1:B251, 0, W1:W251)/50</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18</v>
       </c>
@@ -8598,8 +12970,19 @@
       <c r="U9">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <f>SUMIF(B1:B251, 6, W1:W251)/50</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -8639,8 +13022,19 @@
       <c r="U10">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>9</v>
+      </c>
+      <c r="Z10">
+        <f>SUMIF(B1:B251, 9, W1:W251)/50</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -8686,8 +13080,12 @@
       <c r="U11">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
@@ -8733,8 +13131,19 @@
       <c r="U12">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0.1</v>
+      </c>
+      <c r="Z12">
+        <f>SUMIF(C1:C251, 0.1, W1:W251)/50</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -8771,8 +13180,19 @@
       <c r="Q13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0.5</v>
+      </c>
+      <c r="Z13">
+        <f>SUMIF(C1:C251, 0.5, W1:W251)/50</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -8812,8 +13232,19 @@
       <c r="U14">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <f>SUMIF(C1:C251, 1, W1:W251)/50</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18</v>
       </c>
@@ -8853,8 +13284,19 @@
       <c r="U15">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1.5</v>
+      </c>
+      <c r="Z15">
+        <f>SUMIF(C1:C251, 1.5, W1:W251)/50</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -8894,8 +13336,19 @@
       <c r="U16">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <f>SUMIF(C1:C251, 2, W1:W251)/50</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -8935,8 +13388,12 @@
       <c r="U17">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -8976,8 +13433,19 @@
       <c r="U18">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18">
+        <f>SUMIF(D1:D251, 0, W1:W251)/50</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9008,8 +13476,19 @@
       <c r="Q19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z19">
+        <f>SUMIF(D1:D251, 0.25, W1:W251)/50</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9040,8 +13519,19 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z20">
+        <f>SUMIF(D1:D251, 0.5, W1:W251)/50</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -9072,8 +13562,19 @@
       <c r="Q21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21">
+        <f>SUMIF(D1:D251, 0.75, W1:W251)/50</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -9104,8 +13605,19 @@
       <c r="Q22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z22">
+        <f>SUMIF(D1:D251, 1, W1:W251)/50</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -9136,8 +13648,12 @@
       <c r="Q23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -9168,8 +13684,12 @@
       <c r="Q24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
@@ -9200,8 +13720,12 @@
       <c r="Q25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -9232,8 +13756,12 @@
       <c r="Q26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18</v>
       </c>
@@ -9264,8 +13792,12 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -9296,8 +13828,12 @@
       <c r="Q28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18</v>
       </c>
@@ -9328,8 +13864,12 @@
       <c r="Q29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18</v>
       </c>
@@ -9360,8 +13900,12 @@
       <c r="Q30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18</v>
       </c>
@@ -9392,8 +13936,12 @@
       <c r="Q31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18</v>
       </c>
@@ -9424,8 +13972,12 @@
       <c r="Q32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>18</v>
       </c>
@@ -9456,8 +14008,12 @@
       <c r="Q33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18</v>
       </c>
@@ -9488,8 +14044,12 @@
       <c r="Q34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>18</v>
       </c>
@@ -9520,8 +14080,12 @@
       <c r="Q35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
@@ -9552,8 +14116,12 @@
       <c r="Q36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>18</v>
       </c>
@@ -9584,8 +14152,12 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18</v>
       </c>
@@ -9616,8 +14188,12 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>18</v>
       </c>
@@ -9648,8 +14224,12 @@
       <c r="Q39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>18</v>
       </c>
@@ -9680,8 +14260,12 @@
       <c r="Q40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>18</v>
       </c>
@@ -9712,8 +14296,12 @@
       <c r="Q41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>18</v>
       </c>
@@ -9744,8 +14332,12 @@
       <c r="Q42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18</v>
       </c>
@@ -9776,8 +14368,12 @@
       <c r="Q43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>18</v>
       </c>
@@ -9808,8 +14404,12 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18</v>
       </c>
@@ -9840,8 +14440,12 @@
       <c r="Q45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>18</v>
       </c>
@@ -9872,8 +14476,12 @@
       <c r="Q46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>18</v>
       </c>
@@ -9904,8 +14512,12 @@
       <c r="Q47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18</v>
       </c>
@@ -9936,8 +14548,12 @@
       <c r="Q48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>18</v>
       </c>
@@ -9968,8 +14584,12 @@
       <c r="Q49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>18</v>
       </c>
@@ -10000,8 +14620,12 @@
       <c r="Q50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>18</v>
       </c>
@@ -10032,8 +14656,12 @@
       <c r="Q51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>18</v>
       </c>
@@ -10064,8 +14692,12 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>18</v>
       </c>
@@ -10096,8 +14728,12 @@
       <c r="Q53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -10128,8 +14764,12 @@
       <c r="Q54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>18</v>
       </c>
@@ -10160,8 +14800,12 @@
       <c r="Q55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>18</v>
       </c>
@@ -10192,8 +14836,12 @@
       <c r="Q56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>18</v>
       </c>
@@ -10224,8 +14872,12 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>18</v>
       </c>
@@ -10256,8 +14908,12 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>18</v>
       </c>
@@ -10288,8 +14944,12 @@
       <c r="Q59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>18</v>
       </c>
@@ -10320,8 +14980,12 @@
       <c r="Q60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>18</v>
       </c>
@@ -10352,8 +15016,12 @@
       <c r="Q61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>18</v>
       </c>
@@ -10384,8 +15052,12 @@
       <c r="Q62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>18</v>
       </c>
@@ -10416,8 +15088,12 @@
       <c r="Q63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>18</v>
       </c>
@@ -10448,8 +15124,12 @@
       <c r="Q64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>18</v>
       </c>
@@ -10480,8 +15160,12 @@
       <c r="Q65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>18</v>
       </c>
@@ -10512,8 +15196,12 @@
       <c r="Q66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>18</v>
       </c>
@@ -10544,8 +15232,12 @@
       <c r="Q67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <f t="shared" ref="W67:W130" si="1">IF(AND(P67=1, Q67=1),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>18</v>
       </c>
@@ -10576,8 +15268,12 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>18</v>
       </c>
@@ -10608,8 +15304,12 @@
       <c r="Q69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>18</v>
       </c>
@@ -10640,8 +15340,12 @@
       <c r="Q70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>18</v>
       </c>
@@ -10672,8 +15376,12 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>18</v>
       </c>
@@ -10704,8 +15412,12 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18</v>
       </c>
@@ -10736,8 +15448,12 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>18</v>
       </c>
@@ -10768,8 +15484,12 @@
       <c r="Q74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>18</v>
       </c>
@@ -10800,8 +15520,12 @@
       <c r="Q75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>18</v>
       </c>
@@ -10832,8 +15556,12 @@
       <c r="Q76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>18</v>
       </c>
@@ -10864,8 +15592,12 @@
       <c r="Q77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>18</v>
       </c>
@@ -10896,8 +15628,12 @@
       <c r="Q78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>18</v>
       </c>
@@ -10928,8 +15664,12 @@
       <c r="Q79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>18</v>
       </c>
@@ -10960,8 +15700,12 @@
       <c r="Q80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>18</v>
       </c>
@@ -10992,8 +15736,12 @@
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>18</v>
       </c>
@@ -11024,8 +15772,12 @@
       <c r="Q82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>18</v>
       </c>
@@ -11056,8 +15808,12 @@
       <c r="Q83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>18</v>
       </c>
@@ -11088,8 +15844,12 @@
       <c r="Q84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>18</v>
       </c>
@@ -11120,8 +15880,12 @@
       <c r="Q85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>18</v>
       </c>
@@ -11152,8 +15916,12 @@
       <c r="Q86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>18</v>
       </c>
@@ -11184,8 +15952,12 @@
       <c r="Q87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>18</v>
       </c>
@@ -11216,8 +15988,12 @@
       <c r="Q88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>18</v>
       </c>
@@ -11248,8 +16024,12 @@
       <c r="Q89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>18</v>
       </c>
@@ -11280,8 +16060,12 @@
       <c r="Q90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>18</v>
       </c>
@@ -11312,8 +16096,12 @@
       <c r="Q91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>18</v>
       </c>
@@ -11344,8 +16132,12 @@
       <c r="Q92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>18</v>
       </c>
@@ -11376,8 +16168,12 @@
       <c r="Q93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>18</v>
       </c>
@@ -11408,8 +16204,12 @@
       <c r="Q94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>18</v>
       </c>
@@ -11440,8 +16240,12 @@
       <c r="Q95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>18</v>
       </c>
@@ -11472,8 +16276,12 @@
       <c r="Q96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>18</v>
       </c>
@@ -11504,8 +16312,12 @@
       <c r="Q97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>18</v>
       </c>
@@ -11536,8 +16348,12 @@
       <c r="Q98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>18</v>
       </c>
@@ -11568,8 +16384,12 @@
       <c r="Q99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>18</v>
       </c>
@@ -11600,8 +16420,12 @@
       <c r="Q100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>18</v>
       </c>
@@ -11632,8 +16456,12 @@
       <c r="Q101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>18</v>
       </c>
@@ -11664,8 +16492,12 @@
       <c r="Q102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>18</v>
       </c>
@@ -11696,8 +16528,12 @@
       <c r="Q103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18</v>
       </c>
@@ -11728,8 +16564,12 @@
       <c r="Q104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>18</v>
       </c>
@@ -11760,8 +16600,12 @@
       <c r="Q105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>18</v>
       </c>
@@ -11792,8 +16636,12 @@
       <c r="Q106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>18</v>
       </c>
@@ -11824,8 +16672,12 @@
       <c r="Q107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>18</v>
       </c>
@@ -11856,8 +16708,12 @@
       <c r="Q108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>18</v>
       </c>
@@ -11888,8 +16744,12 @@
       <c r="Q109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>18</v>
       </c>
@@ -11920,8 +16780,12 @@
       <c r="Q110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W110">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>18</v>
       </c>
@@ -11952,8 +16816,12 @@
       <c r="Q111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>18</v>
       </c>
@@ -11984,8 +16852,12 @@
       <c r="Q112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W112">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>18</v>
       </c>
@@ -12016,8 +16888,12 @@
       <c r="Q113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>18</v>
       </c>
@@ -12048,8 +16924,12 @@
       <c r="Q114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>18</v>
       </c>
@@ -12080,8 +16960,12 @@
       <c r="Q115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>18</v>
       </c>
@@ -12112,8 +16996,12 @@
       <c r="Q116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>18</v>
       </c>
@@ -12144,8 +17032,12 @@
       <c r="Q117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>18</v>
       </c>
@@ -12176,8 +17068,12 @@
       <c r="Q118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>18</v>
       </c>
@@ -12208,8 +17104,12 @@
       <c r="Q119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W119">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>18</v>
       </c>
@@ -12240,8 +17140,12 @@
       <c r="Q120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>18</v>
       </c>
@@ -12272,8 +17176,12 @@
       <c r="Q121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>18</v>
       </c>
@@ -12304,8 +17212,12 @@
       <c r="Q122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>18</v>
       </c>
@@ -12336,8 +17248,12 @@
       <c r="Q123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>18</v>
       </c>
@@ -12368,8 +17284,12 @@
       <c r="Q124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>18</v>
       </c>
@@ -12400,8 +17320,12 @@
       <c r="Q125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>18</v>
       </c>
@@ -12432,8 +17356,12 @@
       <c r="Q126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W126">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>18</v>
       </c>
@@ -12464,8 +17392,12 @@
       <c r="Q127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>18</v>
       </c>
@@ -12496,8 +17428,12 @@
       <c r="Q128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>18</v>
       </c>
@@ -12528,8 +17464,12 @@
       <c r="Q129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>18</v>
       </c>
@@ -12560,8 +17500,12 @@
       <c r="Q130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W130">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>18</v>
       </c>
@@ -12592,8 +17536,12 @@
       <c r="Q131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W131">
+        <f t="shared" ref="W131:W194" si="2">IF(AND(P131=1, Q131=1),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>18</v>
       </c>
@@ -12624,8 +17572,12 @@
       <c r="Q132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W132">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>18</v>
       </c>
@@ -12656,8 +17608,12 @@
       <c r="Q133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>18</v>
       </c>
@@ -12688,8 +17644,12 @@
       <c r="Q134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W134">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>18</v>
       </c>
@@ -12720,8 +17680,12 @@
       <c r="Q135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W135">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>18</v>
       </c>
@@ -12752,8 +17716,12 @@
       <c r="Q136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>18</v>
       </c>
@@ -12784,8 +17752,12 @@
       <c r="Q137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>18</v>
       </c>
@@ -12816,8 +17788,12 @@
       <c r="Q138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>18</v>
       </c>
@@ -12848,8 +17824,12 @@
       <c r="Q139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>18</v>
       </c>
@@ -12880,8 +17860,12 @@
       <c r="Q140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W140">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>18</v>
       </c>
@@ -12912,8 +17896,12 @@
       <c r="Q141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>18</v>
       </c>
@@ -12944,8 +17932,12 @@
       <c r="Q142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>18</v>
       </c>
@@ -12976,8 +17968,12 @@
       <c r="Q143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>18</v>
       </c>
@@ -13008,8 +18004,12 @@
       <c r="Q144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W144">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>18</v>
       </c>
@@ -13040,8 +18040,12 @@
       <c r="Q145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>18</v>
       </c>
@@ -13072,8 +18076,12 @@
       <c r="Q146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W146">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>18</v>
       </c>
@@ -13104,8 +18112,12 @@
       <c r="Q147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>18</v>
       </c>
@@ -13136,8 +18148,12 @@
       <c r="Q148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>18</v>
       </c>
@@ -13168,8 +18184,12 @@
       <c r="Q149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W149">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>18</v>
       </c>
@@ -13200,8 +18220,12 @@
       <c r="Q150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W150">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>18</v>
       </c>
@@ -13232,8 +18256,12 @@
       <c r="Q151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>18</v>
       </c>
@@ -13264,8 +18292,12 @@
       <c r="Q152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W152">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>18</v>
       </c>
@@ -13296,8 +18328,12 @@
       <c r="Q153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>18</v>
       </c>
@@ -13328,8 +18364,12 @@
       <c r="Q154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W154">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>18</v>
       </c>
@@ -13360,8 +18400,12 @@
       <c r="Q155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W155">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>18</v>
       </c>
@@ -13392,8 +18436,12 @@
       <c r="Q156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>18</v>
       </c>
@@ -13424,8 +18472,12 @@
       <c r="Q157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>18</v>
       </c>
@@ -13456,8 +18508,12 @@
       <c r="Q158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W158">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>18</v>
       </c>
@@ -13488,8 +18544,12 @@
       <c r="Q159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W159">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>18</v>
       </c>
@@ -13520,8 +18580,12 @@
       <c r="Q160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>18</v>
       </c>
@@ -13552,8 +18616,12 @@
       <c r="Q161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W161">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>18</v>
       </c>
@@ -13584,8 +18652,12 @@
       <c r="Q162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W162">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>18</v>
       </c>
@@ -13616,8 +18688,12 @@
       <c r="Q163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>18</v>
       </c>
@@ -13648,8 +18724,12 @@
       <c r="Q164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>18</v>
       </c>
@@ -13680,8 +18760,12 @@
       <c r="Q165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>18</v>
       </c>
@@ -13712,8 +18796,12 @@
       <c r="Q166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>18</v>
       </c>
@@ -13744,8 +18832,12 @@
       <c r="Q167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W167">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>18</v>
       </c>
@@ -13776,8 +18868,12 @@
       <c r="Q168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>18</v>
       </c>
@@ -13808,8 +18904,12 @@
       <c r="Q169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W169">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>18</v>
       </c>
@@ -13840,8 +18940,12 @@
       <c r="Q170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>18</v>
       </c>
@@ -13872,8 +18976,12 @@
       <c r="Q171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W171">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>18</v>
       </c>
@@ -13904,8 +19012,12 @@
       <c r="Q172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W172">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>18</v>
       </c>
@@ -13936,8 +19048,12 @@
       <c r="Q173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W173">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>18</v>
       </c>
@@ -13968,8 +19084,12 @@
       <c r="Q174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>18</v>
       </c>
@@ -14000,8 +19120,12 @@
       <c r="Q175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W175">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>18</v>
       </c>
@@ -14032,8 +19156,12 @@
       <c r="Q176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W176">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>18</v>
       </c>
@@ -14064,8 +19192,12 @@
       <c r="Q177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>18</v>
       </c>
@@ -14096,8 +19228,12 @@
       <c r="Q178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W178">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>18</v>
       </c>
@@ -14128,8 +19264,12 @@
       <c r="Q179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W179">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>18</v>
       </c>
@@ -14160,8 +19300,12 @@
       <c r="Q180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>18</v>
       </c>
@@ -14192,8 +19336,12 @@
       <c r="Q181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>18</v>
       </c>
@@ -14224,8 +19372,12 @@
       <c r="Q182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W182">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>18</v>
       </c>
@@ -14256,8 +19408,12 @@
       <c r="Q183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -14288,8 +19444,12 @@
       <c r="Q184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W184">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>18</v>
       </c>
@@ -14320,8 +19480,12 @@
       <c r="Q185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W185">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>18</v>
       </c>
@@ -14352,8 +19516,12 @@
       <c r="Q186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W186">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>18</v>
       </c>
@@ -14384,8 +19552,12 @@
       <c r="Q187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W187">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>18</v>
       </c>
@@ -14416,8 +19588,12 @@
       <c r="Q188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>18</v>
       </c>
@@ -14448,8 +19624,12 @@
       <c r="Q189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W189">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>18</v>
       </c>
@@ -14480,8 +19660,12 @@
       <c r="Q190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>18</v>
       </c>
@@ -14512,8 +19696,12 @@
       <c r="Q191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W191">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>18</v>
       </c>
@@ -14544,8 +19732,12 @@
       <c r="Q192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W192">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>18</v>
       </c>
@@ -14576,8 +19768,12 @@
       <c r="Q193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>18</v>
       </c>
@@ -14608,8 +19804,12 @@
       <c r="Q194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>18</v>
       </c>
@@ -14640,8 +19840,12 @@
       <c r="Q195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W195">
+        <f t="shared" ref="W195:W251" si="3">IF(AND(P195=1, Q195=1),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>18</v>
       </c>
@@ -14672,8 +19876,12 @@
       <c r="Q196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W196">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>18</v>
       </c>
@@ -14704,8 +19912,12 @@
       <c r="Q197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W197">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>18</v>
       </c>
@@ -14736,8 +19948,12 @@
       <c r="Q198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>18</v>
       </c>
@@ -14768,8 +19984,12 @@
       <c r="Q199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>18</v>
       </c>
@@ -14800,8 +20020,12 @@
       <c r="Q200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>18</v>
       </c>
@@ -14832,8 +20056,12 @@
       <c r="Q201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>18</v>
       </c>
@@ -14864,8 +20092,12 @@
       <c r="Q202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W202">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>18</v>
       </c>
@@ -14896,8 +20128,12 @@
       <c r="Q203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>18</v>
       </c>
@@ -14928,8 +20164,12 @@
       <c r="Q204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>18</v>
       </c>
@@ -14960,8 +20200,12 @@
       <c r="Q205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>18</v>
       </c>
@@ -14992,8 +20236,12 @@
       <c r="Q206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W206">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>18</v>
       </c>
@@ -15024,8 +20272,12 @@
       <c r="Q207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W207">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>18</v>
       </c>
@@ -15056,8 +20308,12 @@
       <c r="Q208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W208">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>18</v>
       </c>
@@ -15088,8 +20344,12 @@
       <c r="Q209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>18</v>
       </c>
@@ -15120,8 +20380,12 @@
       <c r="Q210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>18</v>
       </c>
@@ -15152,8 +20416,12 @@
       <c r="Q211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>18</v>
       </c>
@@ -15184,8 +20452,12 @@
       <c r="Q212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W212">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>18</v>
       </c>
@@ -15216,8 +20488,12 @@
       <c r="Q213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>18</v>
       </c>
@@ -15248,8 +20524,12 @@
       <c r="Q214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>18</v>
       </c>
@@ -15280,8 +20560,12 @@
       <c r="Q215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W215">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>18</v>
       </c>
@@ -15312,8 +20596,12 @@
       <c r="Q216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W216">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>18</v>
       </c>
@@ -15344,8 +20632,12 @@
       <c r="Q217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>18</v>
       </c>
@@ -15376,8 +20668,12 @@
       <c r="Q218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>18</v>
       </c>
@@ -15408,8 +20704,12 @@
       <c r="Q219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W219">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>18</v>
       </c>
@@ -15440,8 +20740,12 @@
       <c r="Q220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>18</v>
       </c>
@@ -15472,8 +20776,12 @@
       <c r="Q221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W221">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>18</v>
       </c>
@@ -15504,8 +20812,12 @@
       <c r="Q222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W222">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>18</v>
       </c>
@@ -15536,8 +20848,12 @@
       <c r="Q223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>18</v>
       </c>
@@ -15568,8 +20884,12 @@
       <c r="Q224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>18</v>
       </c>
@@ -15600,8 +20920,12 @@
       <c r="Q225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W225">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>18</v>
       </c>
@@ -15632,8 +20956,12 @@
       <c r="Q226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W226">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>18</v>
       </c>
@@ -15664,8 +20992,12 @@
       <c r="Q227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>18</v>
       </c>
@@ -15696,8 +21028,12 @@
       <c r="Q228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W228">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>18</v>
       </c>
@@ -15728,8 +21064,12 @@
       <c r="Q229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W229">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>18</v>
       </c>
@@ -15760,8 +21100,12 @@
       <c r="Q230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W230">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>18</v>
       </c>
@@ -15792,8 +21136,12 @@
       <c r="Q231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W231">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>18</v>
       </c>
@@ -15824,8 +21172,12 @@
       <c r="Q232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W232">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>18</v>
       </c>
@@ -15856,8 +21208,12 @@
       <c r="Q233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W233">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>18</v>
       </c>
@@ -15888,8 +21244,12 @@
       <c r="Q234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W234">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>18</v>
       </c>
@@ -15920,8 +21280,12 @@
       <c r="Q235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>18</v>
       </c>
@@ -15952,8 +21316,12 @@
       <c r="Q236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W236">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>18</v>
       </c>
@@ -15984,8 +21352,12 @@
       <c r="Q237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W237">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>18</v>
       </c>
@@ -16016,8 +21388,12 @@
       <c r="Q238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>18</v>
       </c>
@@ -16048,8 +21424,12 @@
       <c r="Q239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W239">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>18</v>
       </c>
@@ -16080,8 +21460,12 @@
       <c r="Q240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W240">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>18</v>
       </c>
@@ -16112,8 +21496,12 @@
       <c r="Q241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W241">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>18</v>
       </c>
@@ -16144,8 +21532,12 @@
       <c r="Q242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>18</v>
       </c>
@@ -16176,8 +21568,12 @@
       <c r="Q243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>18</v>
       </c>
@@ -16208,8 +21604,12 @@
       <c r="Q244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W244">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>18</v>
       </c>
@@ -16240,8 +21640,12 @@
       <c r="Q245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W245">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>18</v>
       </c>
@@ -16272,8 +21676,12 @@
       <c r="Q246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W246">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>18</v>
       </c>
@@ -16304,8 +21712,12 @@
       <c r="Q247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W247">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>18</v>
       </c>
@@ -16336,8 +21748,12 @@
       <c r="Q248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W248">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>18</v>
       </c>
@@ -16368,8 +21784,12 @@
       <c r="Q249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W249">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>18</v>
       </c>
@@ -16400,8 +21820,12 @@
       <c r="Q250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W250">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>18</v>
       </c>
@@ -16430,6 +21854,10 @@
         <v>1</v>
       </c>
       <c r="Q251">
+        <v>1</v>
+      </c>
+      <c r="W251">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
